--- a/matrix/reviewed/windows/Devices/connected_devices.xlsx
+++ b/matrix/reviewed/windows/Devices/connected_devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\windows\Devices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\matrix\reviewed\windows\Devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC05FAA-C009-4551-9BFD-3C9485387CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A323FF-D4D0-4A5B-8A0D-CE27CA5F7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>T0020</t>
+  </si>
+  <si>
+    <t>T0021</t>
+  </si>
+  <si>
+    <t>28/4/2024</t>
   </si>
 </sst>
 </file>
@@ -252,11 +258,107 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -287,15 +389,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -305,7 +407,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3336C27C-5E73-4BBF-9695-6FF07E04A2C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -354,15 +456,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -372,7 +474,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22128909-123A-46A8-AB95-A9C5F1784905}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -421,15 +523,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -439,7 +541,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0E4EBE-9ECA-46B6-B004-F132A3170E35}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -488,15 +590,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -506,7 +608,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2E6DBA-3A46-4A93-A5F2-AD4E17817F3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -555,15 +657,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -573,7 +675,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75E8634-E54F-4E5A-837B-F4B048A22853}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -622,15 +724,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -640,7 +742,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F828ED-0C50-458C-B552-148DB06A83F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -689,15 +791,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -707,7 +809,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4EEF0B-E429-4D5A-B2C6-DE31D6F6E1D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -756,15 +858,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -774,7 +876,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77CD2BE-2907-482A-951E-9CD5D6595E85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -823,15 +925,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -841,7 +943,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E976E8D-7561-40FC-8E28-4EEB14CF53D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -890,15 +992,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -908,7 +1010,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F606AB-E6CC-45A4-82D6-DEBC93B2C21B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -957,15 +1059,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -975,7 +1077,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21AC9FB-0D02-4B03-8EE9-39812BEF26D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1024,15 +1126,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1042,7 +1144,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3683C543-CEDA-48AA-B98E-D082D3E6ABDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1091,15 +1193,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1109,7 +1211,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2B2655-AD03-4943-A9EA-2BF93FAFB39E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,15 +1260,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1176,7 +1278,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBCBBA3-C5B9-40B0-B4A9-27B5A4DFCE35}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,15 +1327,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1243,7 +1345,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A79984-9925-41C6-8919-112040E9C09F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1300,7 +1402,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9C5FEC-302F-4309-A6C9-D41EE02F380E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,15 +1450,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1366,7 +1468,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20072DBC-5416-4A6B-81E0-5959602E224B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1415,15 +1517,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1433,7 +1535,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BD1D5A-EE8D-437D-84F5-41F09E6586AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,15 +1584,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1500,7 +1602,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C5684-C86C-44C4-A1FC-F8E882F392F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1549,15 +1651,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1567,7 +1669,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF02273E-EBEE-4211-8BCB-5D9EDF847E93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1616,15 +1718,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1634,7 +1736,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326DEC2F-9E0C-44DD-9883-3C991DD41EA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1683,15 +1785,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1701,7 +1803,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C542F9D-6593-4B2F-B4DD-BC5344FFE5BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1750,15 +1852,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1768,7 +1870,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8581829B-9224-4A25-B356-593884C10960}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1809,6 +1911,1550 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA5723D-1EA5-4E92-9D4D-0B5BC05000C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C4AFF5-9E04-4AF0-B254-4294E627BA8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF31777-6655-4199-81C7-3729F86B63F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1113302-CB26-4DF9-BBD9-59F0DDCFF097}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BAFF23-570B-41E2-B687-9A1C2829A488}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238A62E4-57C9-47AC-AFF1-E7CBC029F02A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97E1ACC-CCD3-488D-B1F9-A2087FCE2A9A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD23D62-D655-4DB3-B9B4-BDFE7143C6DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98780158-B399-4484-8228-5F0ABC55F2B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC249BB7-6367-4419-9D7A-ECB12F3AE56B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26312A0F-72AC-4240-8D4A-0075E2D08DAA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8C28FF-67AD-4FBD-9C22-7BC8531D9318}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBF8617-F52A-4FD4-A724-F832A22CECE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D9BA62-268C-40D1-A2F7-6036BF45467F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E58267-79FC-41A4-B1DF-ABAC8093F615}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B77B3C-B3AF-4993-9592-2D57C600FC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="381000"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF90AA-6CDE-48AA-979D-948EF03FAFBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11AD4C2-4E5B-42ED-8759-E4505AFC9BDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B83788-491D-41BA-BC72-418B30ED7E46}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C33D156-416F-440E-B0D2-F631A604E769}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E10D07E-102C-4677-BBD1-FA7EE50253C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F033E7FC-6154-426A-920B-5A9B47CADD7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F24BED-8E9D-45FA-B533-B352875EB7C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EFD0CE-3E6E-4B46-BBB0-F22CFC09CAC1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4DCADC-A4A8-43C7-9DC1-5817C7BA8719}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2078,16 +3724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O5"/>
+  <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>45348</v>
       </c>
@@ -2149,7 +3795,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2171,8 +3817,11 @@
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2180,6 +3829,106 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,13 +3944,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2217,13 +3966,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2239,13 +3988,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2261,13 +4010,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2283,13 +4032,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2305,13 +4054,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2327,13 +4076,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2349,13 +4098,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2371,13 +4120,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2393,13 +4142,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2415,13 +4164,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2437,13 +4186,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2459,13 +4208,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2481,13 +4230,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2503,13 +4252,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -2525,15 +4274,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2547,15 +4296,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2569,15 +4318,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2591,15 +4340,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2613,15 +4362,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2635,15 +4384,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2657,15 +4406,543 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/matrix/reviewed/windows/Devices/connected_devices.xlsx
+++ b/matrix/reviewed/windows/Devices/connected_devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\matrix\reviewed\windows\Devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A323FF-D4D0-4A5B-8A0D-CE27CA5F7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55327B2A-DC5D-4D10-8847-F2A9BD92D861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,62 +1389,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="619125" cy="200025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2505075" y="1800225"/>
-          <a:ext cx="619125" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1916,14 +1860,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -1932,7 +1881,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA5723D-1EA5-4E92-9D4D-0B5BC05000C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1972,20 +1921,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1994,7 +1948,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C4AFF5-9E04-4AF0-B254-4294E627BA8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2034,20 +1988,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2056,7 +2015,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF31777-6655-4199-81C7-3729F86B63F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2096,20 +2055,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2118,7 +2082,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1113302-CB26-4DF9-BBD9-59F0DDCFF097}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2158,20 +2122,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2180,7 +2149,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BAFF23-570B-41E2-B687-9A1C2829A488}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2220,20 +2189,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2242,7 +2216,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238A62E4-57C9-47AC-AFF1-E7CBC029F02A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2282,20 +2256,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2304,7 +2283,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97E1ACC-CCD3-488D-B1F9-A2087FCE2A9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2344,20 +2323,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -2366,7 +2350,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD23D62-D655-4DB3-B9B4-BDFE7143C6DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2406,20 +2390,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2428,7 +2417,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98780158-B399-4484-8228-5F0ABC55F2B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2468,20 +2457,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2490,7 +2484,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC249BB7-6367-4419-9D7A-ECB12F3AE56B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2530,20 +2524,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2552,7 +2551,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26312A0F-72AC-4240-8D4A-0075E2D08DAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2592,20 +2591,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2614,7 +2618,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8C28FF-67AD-4FBD-9C22-7BC8531D9318}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2654,20 +2658,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2676,7 +2685,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBF8617-F52A-4FD4-A724-F832A22CECE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2716,20 +2725,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2738,7 +2752,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D9BA62-268C-40D1-A2F7-6036BF45467F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2778,20 +2792,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -2800,7 +2819,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E58267-79FC-41A4-B1DF-ABAC8093F615}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2840,76 +2859,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="619125" cy="200025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B77B3C-B3AF-4993-9592-2D57C600FC52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2505075" y="381000"/>
-          <a:ext cx="619125" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -2918,7 +2886,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BF90AA-6CDE-48AA-979D-948EF03FAFBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2958,20 +2926,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2980,7 +2953,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11AD4C2-4E5B-42ED-8759-E4505AFC9BDA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3020,20 +2993,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -3042,7 +3020,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B83788-491D-41BA-BC72-418B30ED7E46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3082,20 +3060,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -3104,7 +3087,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C33D156-416F-440E-B0D2-F631A604E769}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3144,20 +3127,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -3166,7 +3154,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E10D07E-102C-4677-BBD1-FA7EE50253C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3206,20 +3194,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -3228,7 +3221,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F033E7FC-6154-426A-920B-5A9B47CADD7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3268,20 +3261,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3290,7 +3288,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F24BED-8E9D-45FA-B533-B352875EB7C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3330,20 +3328,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3352,7 +3355,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EFD0CE-3E6E-4B46-BBB0-F22CFC09CAC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3392,20 +3395,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="388620" cy="281940"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3414,7 +3422,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4DCADC-A4A8-43C7-9DC1-5817C7BA8719}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3454,7 +3462,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3727,7 +3735,7 @@
   <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3876,7 +3884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
